--- a/src/main/resources/uml/db.xlsx
+++ b/src/main/resources/uml/db.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20760" windowHeight="11100" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -192,12 +192,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,8 +206,122 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,79 +335,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -304,58 +349,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -366,13 +359,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,169 +539,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,6 +550,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -578,38 +634,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,186 +650,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1164,8 +1157,8 @@
   <sheetPr/>
   <dimension ref="B3:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1441,7 +1434,7 @@
   <sheetPr/>
   <dimension ref="B5:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/uml/db.xlsx
+++ b/src/main/resources/uml/db.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="13140" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -154,9 +154,6 @@
 }</t>
   </si>
   <si>
-    <t>body_type</t>
-  </si>
-  <si>
     <t>body</t>
   </si>
   <si>
@@ -168,23 +165,38 @@
   <si>
     <t>{
  "num": 3,
+  binary:false,
  "files": [{
    "name": "k1",
    "file": "v1",
-   "mini"：
-   "mini"
+   "mime"：
+   "application/octet-stream"
   },
   {
    "name": "k1",
    "file": "v1",
-   "mini"：
-   "mini"
+   "mime"：
+   "application/octet-stream"
   }
  ]
 }</t>
   </si>
   <si>
     <t>check</t>
+  </si>
+  <si>
+    <t>{
+ "code": 200,
+ "length": "&lt;=-100",
+ "contains": "123",
+ "json": [{
+  "path": "1/1",
+  "value": 1
+ }, {
+  "path": "2/2",
+  "value": 2
+ }]
+}</t>
   </si>
 </sst>
 </file>
@@ -192,10 +204,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -203,6 +215,82 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,61 +303,18 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -281,39 +326,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,24 +355,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,25 +371,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,156 +552,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,6 +562,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -563,16 +590,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,6 +621,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -602,31 +640,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,17 +662,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -658,10 +670,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -670,133 +682,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1157,7 +1169,7 @@
   <sheetPr/>
   <dimension ref="B3:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
@@ -1432,10 +1444,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B5:D20"/>
+  <dimension ref="B5:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1545,45 +1557,42 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" ht="20" customHeight="1" spans="2:3">
+    <row r="14" ht="20" customHeight="1" spans="2:4">
       <c r="B14" t="s">
         <v>41</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
       </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1" spans="2:4">
       <c r="B15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
       </c>
-      <c r="D15" t="s">
-        <v>43</v>
+      <c r="D15" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="2:4">
       <c r="B16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" ht="20" customHeight="1" spans="2:4">
-      <c r="B17" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="1"/>
-    </row>
+    </row>
+    <row r="17" ht="20" customHeight="1"/>
     <row r="18" ht="20" customHeight="1"/>
     <row r="19" ht="20" customHeight="1"/>
-    <row r="20" ht="20" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/main/resources/uml/db.xlsx
+++ b/src/main/resources/uml/db.xlsx
@@ -4,21 +4,73 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13140" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="13140" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="user" sheetId="1" r:id="rId1"/>
-    <sheet name="product" sheetId="2" r:id="rId2"/>
-    <sheet name="user_product" sheetId="4" r:id="rId3"/>
-    <sheet name="testCase" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="阶段" sheetId="6" r:id="rId1"/>
+    <sheet name="user" sheetId="1" r:id="rId2"/>
+    <sheet name="product" sheetId="2" r:id="rId3"/>
+    <sheet name="user_product" sheetId="4" r:id="rId4"/>
+    <sheet name="product_module" sheetId="5" r:id="rId5"/>
+    <sheet name="testCase" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="72">
+  <si>
+    <t>阶段</t>
+  </si>
+  <si>
+    <t>任务</t>
+  </si>
+  <si>
+    <t>时间点</t>
+  </si>
+  <si>
+    <t>第一阶段</t>
+  </si>
+  <si>
+    <t>用例管理模块</t>
+  </si>
+  <si>
+    <t>第二阶段</t>
+  </si>
+  <si>
+    <t>界面UI</t>
+  </si>
+  <si>
+    <t>第三阶段</t>
+  </si>
+  <si>
+    <t>用例执行-不带参数传递</t>
+  </si>
+  <si>
+    <t>第四阶段</t>
+  </si>
+  <si>
+    <t>用例执行-参数传递</t>
+  </si>
+  <si>
+    <t>第五阶段</t>
+  </si>
+  <si>
+    <t>系统函数</t>
+  </si>
+  <si>
+    <t>第六阶段</t>
+  </si>
+  <si>
+    <t>自定义函数(动态编译)</t>
+  </si>
+  <si>
+    <t>第七阶段</t>
+  </si>
+  <si>
+    <t>分布式</t>
+  </si>
   <si>
     <t>列名称</t>
   </si>
@@ -74,6 +126,9 @@
     <t>createTime</t>
   </si>
   <si>
+    <t>datetime</t>
+  </si>
+  <si>
     <t>用户创建时间</t>
   </si>
   <si>
@@ -110,13 +165,28 @@
     <t>产品ID</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>模块名字</t>
+  </si>
+  <si>
+    <t>产品名字</t>
+  </si>
+  <si>
+    <t>测试用例名称</t>
+  </si>
+  <si>
     <t>产品名字,用于查询产品所有版本的用例</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>测试用例名称</t>
+    <t>moduleID</t>
+  </si>
+  <si>
+    <t>模块ID</t>
+  </si>
+  <si>
+    <t>moduleName</t>
   </si>
   <si>
     <t>type</t>
@@ -160,7 +230,7 @@
     <t>body内容</t>
   </si>
   <si>
-    <t>body_file</t>
+    <t>bodyFile</t>
   </si>
   <si>
     <t>{
@@ -182,7 +252,7 @@
 }</t>
   </si>
   <si>
-    <t>check</t>
+    <t>responseCheck</t>
   </si>
   <si>
     <t>{
@@ -198,15 +268,30 @@
  }]
 }</t>
   </si>
+  <si>
+    <t>responseSave</t>
+  </si>
+  <si>
+    <t>{
+ "num": 3,
+ "save": [{
+  "path": "v/1/2",
+    "value":"test"
+ }, {
+  "path": "v2",
+   “value":"test2"
+ }]
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -340,6 +425,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -347,7 +433,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -371,49 +456,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,67 +564,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,13 +630,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,55 +640,28 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -670,10 +770,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -682,142 +782,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1167,10 +1270,200 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="B3:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="28.625" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" ht="20" customHeight="1" spans="2:6">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" ht="20" customHeight="1" spans="2:6">
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" ht="20" customHeight="1" spans="2:6">
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" ht="20" customHeight="1" spans="2:6">
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" ht="20" customHeight="1" spans="2:6">
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" ht="20" customHeight="1" spans="2:6">
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" ht="20" customHeight="1" spans="2:6">
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" ht="20" customHeight="1" spans="2:6">
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" ht="20" customHeight="1" spans="2:6">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" ht="20" customHeight="1" spans="2:6">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" ht="20" customHeight="1" spans="2:6">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" ht="20" customHeight="1" spans="2:6">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" ht="20" customHeight="1" spans="2:6">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" ht="20" customHeight="1" spans="2:6">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" ht="20" customHeight="1" spans="2:6">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" ht="20" customHeight="1" spans="2:6">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" ht="20" customHeight="1" spans="2:6">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" ht="20" customHeight="1" spans="2:6">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" ht="20" customHeight="1" spans="2:6">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B3:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1182,186 +1475,103 @@
   <sheetData>
     <row r="3" ht="20" customHeight="1" spans="2:4">
       <c r="B3" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="2:4">
       <c r="B7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="2:4">
       <c r="B8" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="2:4">
       <c r="B9" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="2:4">
       <c r="B10" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="2:4">
       <c r="B11" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" ht="20" customHeight="1"/>
-    <row r="13" ht="20" customHeight="1"/>
-    <row r="14" ht="20" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B5:D14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
-  <cols>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" ht="20" customHeight="1" spans="2:4">
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" ht="20" customHeight="1" spans="2:4">
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" ht="20" customHeight="1" spans="2:4">
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" ht="20" customHeight="1" spans="2:4">
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" ht="20" customHeight="1" spans="2:4">
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" ht="20" customHeight="1"/>
-    <row r="11" ht="20" customHeight="1"/>
+        <v>38</v>
+      </c>
+    </row>
     <row r="12" ht="20" customHeight="1"/>
     <row r="13" ht="20" customHeight="1"/>
     <row r="14" ht="20" customHeight="1"/>
@@ -1375,10 +1585,93 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="B5:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" ht="20" customHeight="1" spans="2:4">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1" spans="2:4">
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1" spans="2:4">
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1" spans="2:4">
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1" spans="2:4">
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1"/>
+    <row r="11" ht="20" customHeight="1"/>
+    <row r="12" ht="20" customHeight="1"/>
+    <row r="13" ht="20" customHeight="1"/>
+    <row r="14" ht="20" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B5:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A5" sqref="$A5:$XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1390,46 +1683,46 @@
   <sheetData>
     <row r="5" ht="20" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="2:4">
       <c r="B7" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="2:4">
       <c r="B8" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1"/>
@@ -1441,177 +1734,278 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B5:D19"/>
+  <dimension ref="B6:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" ht="20" customHeight="1" spans="2:4">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1" spans="2:4">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1" spans="2:4">
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1" spans="2:4">
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1" spans="2:4">
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B5:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="33.625" customWidth="1"/>
+    <col min="4" max="4" width="35.5" customWidth="1"/>
     <col min="5" max="5" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" ht="20" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="2:4">
       <c r="B7" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="2:4">
       <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="2:4">
       <c r="B9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="2:4">
       <c r="B10" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="2:4">
       <c r="B11" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="2:4">
       <c r="B12" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1" spans="2:4">
       <c r="B13" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1" spans="2:4">
       <c r="B14" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1" spans="2:4">
       <c r="B15" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="2:4">
       <c r="B16" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" ht="20" customHeight="1"/>
-    <row r="18" ht="20" customHeight="1"/>
-    <row r="19" ht="20" customHeight="1"/>
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1" spans="2:4">
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" ht="27" customHeight="1" spans="2:4">
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" ht="27" customHeight="1" spans="2:4">
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1" spans="2:3">
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1"/>
+    <row r="22" ht="20" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>